--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amolina\Documents\chainsmoker\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E015C-78EC-4087-955A-A37A51D5EF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>Date/Time local</t>
   </si>
@@ -178,8 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf4b183"/>
+        <fgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
   </fills>
@@ -225,16 +230,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -249,35 +254,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -288,10 +290,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -329,71 +331,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,7 +423,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -444,11 +446,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -457,13 +459,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -473,7 +475,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -482,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -491,7 +493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -499,10 +501,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -567,28 +569,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="91.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="195.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="195.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,304 +620,324 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="H22" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I22" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
+    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D23" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E23" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="H23" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I23" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
+    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F24" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="H24" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
+    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F25" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="H25" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F26" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="H26" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I26" s="3">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3" t="s">
+    <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C27" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F27" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="H27" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I27" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F28" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G28" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H28" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I28" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E29" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F29" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G29" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H29" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I29" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+    <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C30" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E30" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F30" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G30" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H30" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I30" s="3">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+    <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C31" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D31" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E31" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F31" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G31" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H31" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I31" s="3">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{AABCB24F-743A-4B57-AB6E-B6AC38DA0E79}">
+      <formula1>"Initial Access, Execution, Persistence, Privilege Escalation, Defense Evasion, Credential Access, Discovery, Lateral Movement, Collection, C2, Exfiltration"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amolina\Documents\chainsmoker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E015C-78EC-4087-955A-A37A51D5EF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950CCF8-2543-46AA-BB6A-A6BBB3AC0325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="1920" windowWidth="24840" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Date/Time local</t>
   </si>
@@ -49,136 +49,181 @@
     <t>Attack Chain</t>
   </si>
   <si>
-    <t>4/27/2023, 1507</t>
-  </si>
-  <si>
-    <t>07/25/2024, 0721</t>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Lateral Movement</t>
+  </si>
+  <si>
+    <t>Initial Access</t>
+  </si>
+  <si>
+    <t>192.58.88.106</t>
+  </si>
+  <si>
+    <t>8.29.168.2</t>
+  </si>
+  <si>
+    <t>Spearphishing campaign against 20+ users</t>
+  </si>
+  <si>
+    <t>04/12/2024, 1934</t>
+  </si>
+  <si>
+    <t>wermeling</t>
+  </si>
+  <si>
+    <t>8.29.22.51</t>
+  </si>
+  <si>
+    <t>04/13/2024, 1751</t>
+  </si>
+  <si>
+    <t>Download/execution of googleService.exe</t>
+  </si>
+  <si>
+    <t>techspaceinfo[.]com (192.58.88.106)</t>
+  </si>
+  <si>
+    <t>04/13/2024, 1908</t>
+  </si>
+  <si>
+    <t>207.228.7.51, 207.228.7.59, 207.228.76.3, 8.29.168.2</t>
+  </si>
+  <si>
+    <t>SMB File Transfer of googleService.exe &amp; BIT430E.tmp</t>
+  </si>
+  <si>
+    <t>googleService.exe moved from achaeans to romans, BIT430E.tmp moved intra-domain within achaeans</t>
+  </si>
+  <si>
+    <t>wermeling/castillo</t>
+  </si>
+  <si>
+    <t>04/12/2024, 2003</t>
+  </si>
+  <si>
+    <t>8.29.22.59</t>
+  </si>
+  <si>
+    <t>8.29.168.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">googleService.exe spawned traffic to 8.29.168.5 (ACH-DC) </t>
+  </si>
+  <si>
+    <t>Port 49666 was used</t>
+  </si>
+  <si>
+    <t>4/12/2024, 2145</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>101.13.240.46</t>
+  </si>
+  <si>
+    <t>8.29.22.2, 8.29.22.5</t>
+  </si>
+  <si>
+    <t>Nmap Discovery</t>
+  </si>
+  <si>
+    <t>Discovery of 80 (.2) &amp; 445/5985 (.5)</t>
+  </si>
+  <si>
+    <t>jonathas</t>
+  </si>
+  <si>
+    <t>Exfiltration</t>
+  </si>
+  <si>
+    <t>04/14/2024, 2215</t>
+  </si>
+  <si>
+    <t>207.228.7.52</t>
+  </si>
+  <si>
+    <t>172.217.25.50</t>
+  </si>
+  <si>
+    <t>Likely exfiltration seen from .52 to 172.217.25.50 (cdn.google.com)</t>
+  </si>
+  <si>
+    <t>castillo</t>
+  </si>
+  <si>
+    <t>04/14/2024, 1902</t>
+  </si>
+  <si>
+    <t>207.228.76.9 (rom-kerberos)</t>
+  </si>
+  <si>
+    <t>152.58.88.106</t>
+  </si>
+  <si>
+    <t>Download/execution of apache2.elf from techspaceinfo.com to the rom-kerberos</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>172.25.200.132, 172.25.200.133</t>
-  </si>
-  <si>
-    <t>172.25.17.146</t>
-  </si>
-  <si>
-    <t>User packer created a schtask that references firefox install.ps1 that beacons out to 172.25.17.146</t>
-  </si>
-  <si>
-    <t>davidson</t>
-  </si>
-  <si>
-    <t>08/09/2024, 0723</t>
-  </si>
-  <si>
-    <t>Execution</t>
+    <t>4/14/2024, 1900</t>
+  </si>
+  <si>
+    <t>175.217.25.50</t>
+  </si>
+  <si>
+    <t>over 443/https</t>
+  </si>
+  <si>
+    <t>over 8443/https</t>
+  </si>
+  <si>
+    <t>4/14/2024, 1911</t>
+  </si>
+  <si>
+    <t>4/14/2024, 2242</t>
+  </si>
+  <si>
+    <t>8.29.22.50</t>
+  </si>
+  <si>
+    <t>googleService.exe C2 Beacon (cdn.google.com)</t>
+  </si>
+  <si>
+    <t>4/14/2024, 1917</t>
+  </si>
+  <si>
+    <t>unknown krb server C2 Beacon</t>
+  </si>
+  <si>
+    <t>Traffic spike in unknownkrb server C2 Beacon</t>
+  </si>
+  <si>
+    <t>gary</t>
+  </si>
+  <si>
+    <t>4/14/2024, 2048</t>
+  </si>
+  <si>
+    <t>Persistence</t>
+  </si>
+  <si>
+    <t>rom-nix-1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>W10A.ansible.ctf</t>
-  </si>
-  <si>
-    <t>User ‘not 092cpt’ ran a powershell command that was MozillaInstall.ps1</t>
-  </si>
-  <si>
-    <t>08/12/2024, 1439</t>
-  </si>
-  <si>
-    <t>W10E.ansible.ctf</t>
-  </si>
-  <si>
-    <t>A named pipe appears to be cobalt strike on W10E.ansible.ctf</t>
-  </si>
-  <si>
-    <t>feng</t>
-  </si>
-  <si>
-    <t>07/23/2024, 1404</t>
-  </si>
-  <si>
-    <t>W10A.ansible.ctf reaches out to 172.25.17.146 to download MozillaInstall.ps1</t>
-  </si>
-  <si>
-    <t>molina</t>
-  </si>
-  <si>
-    <t>07/23/2024, 1541</t>
-  </si>
-  <si>
-    <t>W10C.ansible.ctf</t>
-  </si>
-  <si>
-    <t>W10C.ansible.ctf reaches out to 172.25.17.146 to download FirefoxInstall.ps1 and Taskings.ps1</t>
-  </si>
-  <si>
-    <t>W10C.ansible.ctf reaches out to 172.25.17.146 to download Cobalt Strike beacon</t>
-  </si>
-  <si>
-    <t>08/09/2024, 0721</t>
-  </si>
-  <si>
-    <t>W10A.ansible.ctf reaches out to 172.25.17.146 to download Cobalt Strike beacon</t>
-  </si>
-  <si>
-    <t>08/12/2024, 1428</t>
-  </si>
-  <si>
-    <t>Lateral Movement</t>
-  </si>
-  <si>
-    <t>W10A.ansible.ctf laterally moves via PSEXEC to W10C.ansible.ctf</t>
-  </si>
-  <si>
-    <t>PSEXEC file name is ADMIN$\\198c70.exe</t>
-  </si>
-  <si>
-    <t>marshall</t>
-  </si>
-  <si>
-    <t>08/12/2024, 1429</t>
-  </si>
-  <si>
-    <t>W10A.ansible.ctf laterally moves via PSEXEC to W10E.ansible.ctf</t>
-  </si>
-  <si>
-    <t>PSEXEC file name is ADMIN$\\6696191.exe, PipeName:  MSSE-4688-server</t>
-  </si>
-  <si>
-    <t>07/24/2024, 0859</t>
-  </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>172.25.17.151</t>
-  </si>
-  <si>
-    <t>user packer creds being send over cleartext from 172.25.200.131 (W10A.ansible.ctf) to 172.25.17.151</t>
-  </si>
-  <si>
-    <t>authenticity_token=iJgpXDT69ydlF54qp3JxoopFVSh-L4K9yXqiT-bwhYxVgxtTtXpL_7peanLjzFJ9_mvUmVbsufN1o-MVX73wOg&amp;user%5Blogin%5D=packer&amp;user%5Bpassword%5D=packer&amp;user%5Bremember_me%5D=0</t>
-  </si>
-  <si>
-    <t>08/13/2024, 1055</t>
-  </si>
-  <si>
-    <t>Discovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.25.17.36 </t>
-  </si>
-  <si>
-    <t>172.25.200.134 (W10D.ansible.ctf)</t>
-  </si>
-  <si>
-    <t>W10D.ansible.ctf’s file system is enumerated by 172.25.17.36</t>
-  </si>
-  <si>
-    <t>Accessed C$ share</t>
+    <t>myssql user creation</t>
+  </si>
+  <si>
+    <t>mispelled name, passwd assigned, has bash shell access, all inconsistent with a service account</t>
+  </si>
+  <si>
+    <t>wermeling, colon</t>
   </si>
 </sst>
 </file>
@@ -254,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -268,6 +313,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,23 +621,24 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" customWidth="1"/>
     <col min="6" max="6" width="91" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="195.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,11 +668,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -640,301 +684,331 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="I9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="3">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="3">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="3">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="3">
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="3">
-        <v>3</v>
-      </c>
+    <row r="21" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{AABCB24F-743A-4B57-AB6E-B6AC38DA0E79}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{AABCB24F-743A-4B57-AB6E-B6AC38DA0E79}">
       <formula1>"Initial Access, Execution, Persistence, Privilege Escalation, Defense Evasion, Credential Access, Discovery, Lateral Movement, Collection, C2, Exfiltration"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amolina\Documents\chainsmoker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950CCF8-2543-46AA-BB6A-A6BBB3AC0325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85941A49-2607-43B5-A213-1C0E2B2ACD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="585" yWindow="1920" windowWidth="24840" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,7 +622,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amolina\Documents\chainsmoker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85941A49-2607-43B5-A213-1C0E2B2ACD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F4B21-E2E4-4537-8306-32C27B27FB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1920" windowWidth="24840" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14400" yWindow="210" windowWidth="14400" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amolina\Documents\chainsmoker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F4B21-E2E4-4537-8306-32C27B27FB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DC0225-F6F1-4E4D-9E63-00DC5AE65A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="210" windowWidth="14400" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="90" windowWidth="29040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -314,6 +314,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,8 +627,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,78 +697,78 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -770,28 +776,28 @@
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -819,28 +825,28 @@
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,19 +903,19 @@
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
@@ -918,30 +924,30 @@
         <v>16</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3">
         <v>2</v>
@@ -949,28 +955,28 @@
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="9:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,6 +1013,9 @@
       <c r="I31" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+    <sortCondition ref="B2:B13"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{AABCB24F-743A-4B57-AB6E-B6AC38DA0E79}">
       <formula1>"Initial Access, Execution, Persistence, Privilege Escalation, Defense Evasion, Credential Access, Discovery, Lateral Movement, Collection, C2, Exfiltration"</formula1>

--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -15,17 +15,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -104,18 +109,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
@@ -125,20 +136,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,95 +518,97 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="0.7192857142857143" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
-    <col width="28.14785714285714" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
-    <col width="17.43357142857143" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
-    <col width="28.005" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="51.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
-    <col width="91.005" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
-    <col width="195.8621428571429" bestFit="1" customWidth="1" style="9" min="7" max="7"/>
-    <col width="18.43357142857143" bestFit="1" customWidth="1" style="9" min="8" max="8"/>
-    <col width="15.71928571428571" bestFit="1" customWidth="1" style="11" min="9" max="9"/>
+    <col width="0.7192857142857143" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
+    <col width="28.14785714285714" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="17.43357142857143" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
+    <col width="28.005" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
+    <col width="51.57642857142857" bestFit="1" customWidth="1" style="11" min="5" max="5"/>
+    <col width="91.005" bestFit="1" customWidth="1" style="11" min="6" max="6"/>
+    <col width="195.8621428571429" bestFit="1" customWidth="1" style="11" min="7" max="7"/>
+    <col width="18.43357142857143" bestFit="1" customWidth="1" style="11" min="8" max="8"/>
+    <col width="15.71928571428571" bestFit="1" customWidth="1" style="13" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Date/Time local</t>
         </is>
       </c>
-      <c r="B1" s="13" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>Date/Time MPNET</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>MITRE Tactic</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>Source Hostname/IP</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="14" t="inlineStr">
         <is>
           <t>Target Hostname/IP</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="14" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="14" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="14" t="inlineStr">
         <is>
           <t>Operator</t>
         </is>
       </c>
-      <c r="I1" s="14" t="inlineStr">
+      <c r="I1" s="16" t="inlineStr">
         <is>
           <t>Attack Chain</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="9" t="inlineStr"/>
-      <c r="B2" s="15" t="n">
-        <v>45396.94583333333</v>
-      </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr"/>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>04/14/2024, 2242</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="D2" s="11" t="inlineStr">
         <is>
           <t>8.29.22.50</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>172.217.25.50</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>googleService.exe C2 Beacon (cdn.google.com)</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
+      <c r="G2" s="11" t="inlineStr">
         <is>
           <t>over 443/https</t>
         </is>
       </c>
-      <c r="H2" s="9" t="inlineStr">
+      <c r="H2" s="11" t="inlineStr">
         <is>
           <t>wermeling</t>
         </is>
@@ -611,32 +618,34 @@
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="9" t="inlineStr"/>
-      <c r="B3" s="16" t="n">
-        <v>45396.92708333334</v>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="A3" s="11" t="inlineStr"/>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>04/14/2024, 2215</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>Exfiltration</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="11" t="inlineStr">
         <is>
           <t>207.228.7.52</t>
         </is>
       </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="E3" s="11" t="inlineStr">
         <is>
           <t>172.217.25.50</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>Likely exfiltration seen from .52 to 172.217.25.50 (cdn.google.com)</t>
         </is>
       </c>
-      <c r="G3" s="9" t="inlineStr"/>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="G3" s="11" t="inlineStr"/>
+      <c r="H3" s="11" t="inlineStr">
         <is>
           <t>castillo</t>
         </is>
@@ -646,32 +655,34 @@
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="9" t="inlineStr"/>
-      <c r="B4" s="15" t="n">
-        <v>45396.86666666667</v>
-      </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>04/14/2024, 2048</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>Persistence</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D4" s="11" t="inlineStr">
         <is>
           <t>rom-nix-1</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr"/>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>myssql user creation</t>
         </is>
       </c>
-      <c r="G4" s="9" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>mispelled name, passwd assigned, has bash shell access, all inconsistent with a service account</t>
         </is>
       </c>
-      <c r="H4" s="9" t="inlineStr">
+      <c r="H4" s="11" t="inlineStr">
         <is>
           <t>gary</t>
         </is>
@@ -681,36 +692,38 @@
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="9" t="inlineStr"/>
-      <c r="B5" s="15" t="n">
-        <v>45396.80347222222</v>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>04/14/2024, 1917</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>207.228.76.9 (rom-kerberos)</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="11" t="inlineStr">
         <is>
           <t>172.217.25.50</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>Traffic spike in unknownkrb server C2 Beacon</t>
         </is>
       </c>
-      <c r="G5" s="9" t="inlineStr">
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>over 443/https</t>
         </is>
       </c>
-      <c r="H5" s="9" t="inlineStr">
+      <c r="H5" s="11" t="inlineStr">
         <is>
           <t>wermeling</t>
         </is>
@@ -720,36 +733,38 @@
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="9" t="inlineStr"/>
-      <c r="B6" s="15" t="n">
-        <v>45396.79930555556</v>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>04/14/2024, 1911</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="11" t="inlineStr">
         <is>
           <t>207.228.76.9 (rom-kerberos)</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>172.217.25.50</t>
         </is>
       </c>
-      <c r="F6" s="9" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>unknown krb server C2 Beacon</t>
         </is>
       </c>
-      <c r="G6" s="9" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>over 443/https</t>
         </is>
       </c>
-      <c r="H6" s="9" t="inlineStr">
+      <c r="H6" s="11" t="inlineStr">
         <is>
           <t>wermeling</t>
         </is>
@@ -759,36 +774,38 @@
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="9" t="inlineStr"/>
-      <c r="B7" s="15" t="n">
-        <v>45396.79305555556</v>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="A7" s="11" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>04/14/2024, 1902</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Execution</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
+      <c r="D7" s="11" t="inlineStr">
         <is>
           <t>207.228.76.9 (rom-kerberos)</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>152.58.88.106</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>Download/execution of apache2.elf from techspaceinfo.com to the rom-kerberos</t>
         </is>
       </c>
-      <c r="G7" s="9" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>over 8443/https</t>
         </is>
       </c>
-      <c r="H7" s="9" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>castillo</t>
         </is>
@@ -798,36 +815,38 @@
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="9" t="inlineStr"/>
-      <c r="B8" s="15" t="n">
-        <v>45396.79166666666</v>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>04/14/2024, 1900</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
+      <c r="D8" s="11" t="inlineStr">
         <is>
           <t>207.228.7.52</t>
         </is>
       </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="E8" s="11" t="inlineStr">
         <is>
           <t>175.217.25.50</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>googleService.exe C2 Beacon (cdn.google.com)</t>
         </is>
       </c>
-      <c r="G8" s="9" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>over 443/https</t>
         </is>
       </c>
-      <c r="H8" s="9" t="inlineStr">
+      <c r="H8" s="11" t="inlineStr">
         <is>
           <t>wermeling</t>
         </is>
@@ -837,36 +856,38 @@
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="9" t="inlineStr"/>
-      <c r="B9" s="15" t="n">
-        <v>45395.79722222222</v>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="A9" s="11" t="inlineStr"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>04/13/2024, 1908</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>Lateral Movement</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>8.29.22.51</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>207.228.7.51, 207.228.7.59, 207.228.76.3, 8.29.168.2</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>SMB File Transfer of googleService.exe &amp; BIT430E.tmp</t>
         </is>
       </c>
-      <c r="G9" s="9" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>googleService.exe moved from achaeans to romans, BIT430E.tmp moved intra-domain within achaeans</t>
         </is>
       </c>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>wermeling/castillo</t>
         </is>
@@ -876,36 +897,38 @@
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="9" t="inlineStr"/>
-      <c r="B10" s="15" t="n">
-        <v>45395.74375</v>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="A10" s="11" t="inlineStr"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>04/13/2024, 1751</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>Execution</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="D10" s="11" t="inlineStr">
         <is>
           <t>8.29.22.51</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="E10" s="11" t="inlineStr">
         <is>
           <t>192.58.88.106</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>Download/execution of googleService.exe</t>
         </is>
       </c>
-      <c r="G10" s="9" t="inlineStr">
+      <c r="G10" s="11" t="inlineStr">
         <is>
           <t>techspaceinfo[.]com (192.58.88.106)</t>
         </is>
       </c>
-      <c r="H10" s="9" t="inlineStr">
+      <c r="H10" s="11" t="inlineStr">
         <is>
           <t>wermeling/castillo</t>
         </is>
@@ -915,36 +938,38 @@
       </c>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="9" t="inlineStr"/>
-      <c r="B11" s="15" t="n">
-        <v>45394.90625</v>
-      </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="A11" s="11" t="inlineStr"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>04/12/2024, 2145</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Discovery</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="D11" s="11" t="inlineStr">
         <is>
           <t>101.13.240.46</t>
         </is>
       </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="E11" s="11" t="inlineStr">
         <is>
           <t>8.29.22.2, 8.29.22.5</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>Nmap Discovery</t>
         </is>
       </c>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>Discovery of 80 (.2) &amp; 445/5985 (.5)</t>
         </is>
       </c>
-      <c r="H11" s="9" t="inlineStr">
+      <c r="H11" s="11" t="inlineStr">
         <is>
           <t>jonathas</t>
         </is>
@@ -954,36 +979,38 @@
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="9" t="inlineStr"/>
-      <c r="B12" s="15" t="n">
-        <v>45394.83541666667</v>
-      </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="A12" s="11" t="inlineStr"/>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>04/12/2024, 2003</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Lateral Movement</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D12" s="11" t="inlineStr">
         <is>
           <t>8.29.22.59</t>
         </is>
       </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="E12" s="11" t="inlineStr">
         <is>
           <t>8.29.168.5</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">googleService.exe spawned traffic to 8.29.168.5 (ACH-DC) </t>
         </is>
       </c>
-      <c r="G12" s="9" t="inlineStr">
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>Port 49666 was used</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="11" t="inlineStr">
         <is>
           <t>wermeling, colon</t>
         </is>
@@ -993,32 +1020,34 @@
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="9" t="inlineStr"/>
-      <c r="B13" s="15" t="n">
-        <v>45394.81527777778</v>
-      </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="A13" s="11" t="inlineStr"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>04/12/2024, 1934</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Initial Access</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
+      <c r="D13" s="11" t="inlineStr">
         <is>
           <t>192.58.88.106</t>
         </is>
       </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="E13" s="11" t="inlineStr">
         <is>
           <t>8.29.168.2</t>
         </is>
       </c>
-      <c r="F13" s="9" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>Spearphishing campaign against 20+ users</t>
         </is>
       </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr">
+      <c r="G13" s="11" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
         <is>
           <t>wermeling</t>
         </is>
@@ -1028,156 +1057,156 @@
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="9" t="inlineStr"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>04/12/2024, 1921</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="A14" s="11" t="inlineStr"/>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>04/14/2024, 1920</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>Initial Access</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="G14" s="8" t="inlineStr">
+      <c r="G14" s="9" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="H14" s="8" t="inlineStr">
+      <c r="H14" s="9" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="I14" s="10" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="9" t="n"/>
+      <c r="A15" s="11" t="n"/>
       <c r="B15" s="7" t="n"/>
-      <c r="C15" s="8" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="9" t="n"/>
-      <c r="H15" s="8" t="inlineStr"/>
+      <c r="C15" s="11" t="n"/>
+      <c r="D15" s="11" t="n"/>
+      <c r="E15" s="11" t="n"/>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="11" t="n"/>
       <c r="I15" s="6" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="11" t="n"/>
       <c r="B16" s="7" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="9" t="n"/>
-      <c r="F16" s="9" t="n"/>
-      <c r="G16" s="9" t="n"/>
-      <c r="H16" s="9" t="n"/>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="11" t="n"/>
+      <c r="F16" s="11" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
       <c r="I16" s="6" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="9" t="n"/>
+      <c r="A17" s="11" t="n"/>
       <c r="B17" s="7" t="n"/>
-      <c r="C17" s="9" t="n"/>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="9" t="n"/>
-      <c r="F17" s="9" t="n"/>
-      <c r="G17" s="9" t="n"/>
-      <c r="H17" s="9" t="n"/>
+      <c r="C17" s="11" t="n"/>
+      <c r="D17" s="11" t="n"/>
+      <c r="E17" s="11" t="n"/>
+      <c r="F17" s="11" t="n"/>
+      <c r="G17" s="11" t="n"/>
+      <c r="H17" s="11" t="n"/>
       <c r="I17" s="6" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="9" t="n"/>
+      <c r="A18" s="11" t="n"/>
       <c r="B18" s="7" t="n"/>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="9" t="n"/>
-      <c r="F18" s="9" t="n"/>
-      <c r="G18" s="9" t="n"/>
-      <c r="H18" s="9" t="n"/>
+      <c r="C18" s="11" t="n"/>
+      <c r="D18" s="11" t="n"/>
+      <c r="E18" s="11" t="n"/>
+      <c r="F18" s="11" t="n"/>
+      <c r="G18" s="11" t="n"/>
+      <c r="H18" s="11" t="n"/>
       <c r="I18" s="6" t="n"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="9" t="n"/>
+      <c r="A19" s="11" t="n"/>
       <c r="B19" s="7" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
-      <c r="H19" s="9" t="n"/>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="11" t="n"/>
+      <c r="F19" s="11" t="n"/>
+      <c r="G19" s="11" t="n"/>
+      <c r="H19" s="11" t="n"/>
       <c r="I19" s="6" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="9" t="n"/>
+      <c r="A20" s="11" t="n"/>
       <c r="B20" s="7" t="n"/>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="9" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="G20" s="9" t="n"/>
-      <c r="H20" s="9" t="n"/>
+      <c r="C20" s="11" t="n"/>
+      <c r="D20" s="11" t="n"/>
+      <c r="E20" s="11" t="n"/>
+      <c r="F20" s="11" t="n"/>
+      <c r="G20" s="11" t="n"/>
+      <c r="H20" s="11" t="n"/>
       <c r="I20" s="6" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="9" t="n"/>
+      <c r="A21" s="11" t="n"/>
       <c r="B21" s="7" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="9" t="n"/>
-      <c r="E21" s="9" t="n"/>
-      <c r="F21" s="9" t="n"/>
-      <c r="G21" s="9" t="n"/>
-      <c r="H21" s="9" t="n"/>
+      <c r="C21" s="11" t="n"/>
+      <c r="D21" s="11" t="n"/>
+      <c r="E21" s="11" t="n"/>
+      <c r="F21" s="11" t="n"/>
+      <c r="G21" s="11" t="n"/>
+      <c r="H21" s="11" t="n"/>
       <c r="I21" s="6" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="9" t="n"/>
+      <c r="A22" s="11" t="n"/>
       <c r="B22" s="7" t="n"/>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="G22" s="9" t="n"/>
-      <c r="H22" s="9" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="11" t="n"/>
+      <c r="F22" s="11" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
       <c r="I22" s="6" t="n"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="9" t="n"/>
+      <c r="A23" s="11" t="n"/>
       <c r="B23" s="7" t="n"/>
-      <c r="C23" s="9" t="n"/>
-      <c r="D23" s="9" t="n"/>
-      <c r="E23" s="9" t="n"/>
-      <c r="F23" s="9" t="n"/>
-      <c r="G23" s="9" t="n"/>
-      <c r="H23" s="9" t="n"/>
+      <c r="C23" s="11" t="n"/>
+      <c r="D23" s="11" t="n"/>
+      <c r="E23" s="11" t="n"/>
+      <c r="F23" s="11" t="n"/>
+      <c r="G23" s="11" t="n"/>
+      <c r="H23" s="11" t="n"/>
       <c r="I23" s="6" t="n"/>
     </row>
     <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="9" t="n"/>
+      <c r="A24" s="11" t="n"/>
       <c r="B24" s="7" t="n"/>
-      <c r="C24" s="9" t="n"/>
-      <c r="D24" s="9" t="n"/>
-      <c r="E24" s="9" t="n"/>
-      <c r="F24" s="9" t="n"/>
-      <c r="G24" s="9" t="n"/>
-      <c r="H24" s="9" t="n"/>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="11" t="n"/>
+      <c r="E24" s="11" t="n"/>
+      <c r="F24" s="11" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
       <c r="I24" s="6" t="n"/>
     </row>
   </sheetData>
